--- a/운동.xlsx
+++ b/운동.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C5C85-EEE0-41A8-A1C6-D6C2454073DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21536FC-D4B8-4E50-9E43-04E6F0966B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E7F1F19-0C34-4A5F-B191-6F3B4DC83468}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>스쿼트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기상직후 목표:65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(후면)벤트오버 암 익스텐션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(측면,후면)벤트오버 레터럴 레이즈(60,30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엄지 위,나,아래 밀고버티기(위,아래) 6초씩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쭈구려 앉아서 크게 웅크리기30초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목운동(손으로 막고 돌리기)20초씩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시작 운동(매일 필수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어깨+삼두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철봉 총합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사이드 플랭크 업다운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복근(slow and hold)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,15 +368,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레그레이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다리차기(+교차)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(측면)원암 사이드 레터럴 레이즈(+밴드)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,15 +377,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날개뼈 자극 및 스트레칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>런지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하체스(대퇴근 응축)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레그레이즈(+리버스크런치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리: 크런치 한계까지 홀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소요시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복근(slow and hold)(2세트합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(측면)원암 사이드 레터럴 레이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(후면,측면)벤트오버 레터럴 레이즈(60,30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+12kg 아령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1세트 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨+삼두(3세트 합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개뼈 자극 및 스트레칭(1세트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하체1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 및 힘든순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버터플라이 (페시브,반대힘,손놓고)
+팔꿈치로 무릎 누르기 10초씩 연속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼그려앉아서 내전근 피아 스트레칭
+(페시브,반대힘,손놓고) 10초씩 연속
+어깨로 한쪽 무릎 막고 두손으로 나머지 무릎을 밀어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복근3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철봉4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리찢고 흔들기(18칸) 20회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70~80분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 스트레칭(위,아래,옆,대각선)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목운동(손으로 막고 돌리기)20초씩
+(날개뼈 자극 및 스트레칭 X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +584,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -544,24 +621,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1030,32 +1107,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1085,6 +1136,61 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1099,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,15 +1254,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,9 +1272,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,9 +1284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,175 +1308,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,19 +1326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,16 +1347,238 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,20 +1587,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,7 +1973,7 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1792,21 +1988,22 @@
     <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="5" customWidth="1"/>
     <col min="10" max="10" width="1.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="0.75" style="13" customWidth="1"/>
     <col min="14" max="14" width="36.625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="105" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="43" customWidth="1"/>
     <col min="16" max="16" width="0.875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="1" customWidth="1"/>
     <col min="18" max="18" width="5.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="1" style="13" customWidth="1"/>
-    <col min="20" max="20" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" customWidth="1"/>
-    <col min="22" max="22" width="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="5" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="26" width="9" style="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="9.625" style="50" customWidth="1"/>
+    <col min="22" max="22" width="12.125" customWidth="1"/>
+    <col min="23" max="23" width="11.5" style="5" customWidth="1"/>
+    <col min="24" max="24" width="11" style="12" customWidth="1"/>
+    <col min="25" max="25" width="10.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1"/>
     <col min="27" max="27" width="9.75" style="5" customWidth="1"/>
     <col min="28" max="28" width="12.375" style="1" customWidth="1"/>
     <col min="29" max="29" width="10.75" style="1" customWidth="1"/>
@@ -1815,243 +2012,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="F1" s="64" t="s">
+      <c r="A1" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
+      <c r="F1" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="139"/>
+      <c r="N1" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="113"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="R1" s="113"/>
+      <c r="T1" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="103"/>
-      <c r="N1" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="66"/>
-      <c r="T1" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="62"/>
-      <c r="W1" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="62"/>
+      <c r="V1" s="121"/>
     </row>
     <row r="2" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="A2" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="98">
-        <v>110</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="107"/>
+      <c r="K2" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="39">
+        <v>100</v>
+      </c>
+      <c r="N2" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="115"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="3">
         <v>100</v>
       </c>
-      <c r="T2" s="63">
-        <v>44324</v>
-      </c>
-      <c r="U2" s="72"/>
-      <c r="W2" s="63">
-        <v>44334</v>
-      </c>
-      <c r="X2" s="72"/>
+      <c r="T2" s="65">
+        <v>44351</v>
+      </c>
+      <c r="U2" s="107">
+        <v>44354</v>
+      </c>
+      <c r="V2" s="108"/>
     </row>
     <row r="3" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="29">
+        <v>10</v>
+      </c>
+      <c r="H3" s="29">
+        <v>9</v>
+      </c>
+      <c r="I3" s="27">
+        <v>7</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="40">
+        <v>100</v>
+      </c>
+      <c r="N3" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="143"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="117"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="34">
-        <v>9</v>
-      </c>
-      <c r="H3" s="34">
-        <v>7</v>
-      </c>
-      <c r="I3" s="32">
-        <v>7</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="99">
-        <v>110</v>
-      </c>
-      <c r="N3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27">
-        <v>7</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="G4" s="23">
+        <v>8</v>
+      </c>
+      <c r="H4" s="23">
         <v>5</v>
       </c>
-      <c r="I4" s="23">
-        <v>4</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="99">
-        <v>110</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="106"/>
+      <c r="I4" s="20">
+        <v>5</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="40">
+        <v>100</v>
+      </c>
+      <c r="N4" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="141"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="14">
         <v>100</v>
       </c>
-      <c r="W4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="45"/>
+      <c r="T4" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="85"/>
+      <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="I5" s="20">
+        <v>2</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="40">
+        <v>30</v>
+      </c>
+      <c r="N5" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="123"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="117"/>
+      <c r="T5" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="88"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="27">
-        <v>2</v>
-      </c>
-      <c r="H5" s="27">
-        <v>2</v>
-      </c>
-      <c r="I5" s="23">
-        <v>2</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="99">
-        <v>30</v>
-      </c>
-      <c r="N5" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="52"/>
-      <c r="W5" s="17">
-        <v>44290</v>
-      </c>
-      <c r="X5" s="90">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="Y5" s="91"/>
-    </row>
-    <row r="6" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="23">
         <v>3</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <v>3</v>
       </c>
-      <c r="I6" s="23">
-        <v>2</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="99">
-        <v>110</v>
+      <c r="I6" s="20">
+        <v>3</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="40">
+        <v>100</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="98">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="O6" s="39">
+        <v>40</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="2" t="s">
@@ -2060,655 +2255,648 @@
       <c r="R6" s="2">
         <v>100</v>
       </c>
-      <c r="W6" s="16">
-        <v>44292</v>
-      </c>
-      <c r="X6" s="59">
-        <v>69.2</v>
-      </c>
-      <c r="Y6" s="60"/>
-    </row>
-    <row r="7" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
+      <c r="T6" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="85"/>
+      <c r="V6" s="86"/>
+    </row>
+    <row r="7" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="31">
         <v>11</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="31">
         <v>11</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="32">
         <v>11</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="99">
-        <v>110</v>
+      <c r="K7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="40">
+        <v>100</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="99">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="O7" s="40">
+        <v>25</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R7" s="2">
         <v>60</v>
       </c>
-      <c r="W7" s="16">
-        <v>44293</v>
-      </c>
-      <c r="X7" s="59">
-        <v>68.7</v>
-      </c>
-      <c r="Y7" s="60"/>
-    </row>
-    <row r="8" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="T7" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="133"/>
+      <c r="V7" s="134"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="39">
+      <c r="F8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="34">
+        <v>17</v>
+      </c>
+      <c r="H8" s="34">
+        <v>16</v>
+      </c>
+      <c r="I8" s="36">
         <v>15</v>
       </c>
-      <c r="H8" s="39">
-        <v>13</v>
-      </c>
-      <c r="I8" s="41">
-        <v>12</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="99">
-        <v>70</v>
+      <c r="K8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="40">
+        <v>100</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="111">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="O8" s="47">
+        <v>20</v>
       </c>
       <c r="P8" s="13"/>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="104">
+      <c r="R8" s="42">
         <f>SUM(R2,R4,R6,R7)</f>
         <v>360</v>
       </c>
-      <c r="W8" s="16">
-        <v>44294</v>
-      </c>
-      <c r="X8" s="59">
-        <v>68.3</v>
-      </c>
-      <c r="Y8" s="60"/>
+      <c r="T8" s="135" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="27">
+        <v>45</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="23">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23">
+        <v>16</v>
+      </c>
+      <c r="I9" s="20">
         <v>15</v>
       </c>
-      <c r="H9" s="27">
-        <v>13</v>
-      </c>
-      <c r="I9" s="23">
-        <v>12</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="99">
-        <v>40</v>
+      <c r="K9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="40">
+        <v>100</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2">
         <v>17</v>
       </c>
       <c r="P9" s="13"/>
-      <c r="Q9" s="63">
-        <v>44337</v>
-      </c>
-      <c r="R9" s="72"/>
-      <c r="W9" s="16">
-        <v>44309</v>
-      </c>
-      <c r="X9" s="59">
-        <v>68.2</v>
-      </c>
-      <c r="Y9" s="60"/>
+      <c r="Q9" s="106">
+        <v>44349</v>
+      </c>
+      <c r="R9" s="108"/>
+      <c r="T9" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
     </row>
     <row r="10" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="31">
+        <v>17</v>
+      </c>
+      <c r="H10" s="31">
+        <v>16</v>
+      </c>
+      <c r="I10" s="32">
+        <v>15</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="47">
+        <v>55</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="100"/>
+      <c r="T10" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="93"/>
+      <c r="V10" s="94"/>
+    </row>
+    <row r="11" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="36">
-        <v>15</v>
-      </c>
-      <c r="H10" s="36">
-        <v>13</v>
-      </c>
-      <c r="I10" s="37">
-        <v>12</v>
-      </c>
-      <c r="K10" s="25" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="33" t="s">
+      <c r="H11" s="117"/>
+      <c r="I11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="41">
+        <f>SUM(L2:L9)</f>
+        <v>730</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="111">
-        <v>55</v>
-      </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="4"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="16">
-        <v>44311</v>
-      </c>
-      <c r="X10" s="59">
-        <v>67.7</v>
-      </c>
-      <c r="Y10" s="60"/>
-    </row>
-    <row r="11" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67" t="s">
+      <c r="O11" s="47">
+        <v>35</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="100"/>
+      <c r="T11" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" s="71"/>
+      <c r="V11" s="72"/>
+    </row>
+    <row r="12" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="9">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="9">
         <v>10</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="101">
-        <f>SUM(L2:L9)</f>
-        <v>690</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="111">
-        <v>35</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="W11" s="16">
-        <v>44314</v>
-      </c>
-      <c r="X11" s="94">
-        <v>67.5</v>
-      </c>
-      <c r="Y11" s="95"/>
-    </row>
-    <row r="12" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="58" t="s">
+      <c r="F12" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="106">
+        <v>44347</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="N12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="2">
+        <v>45</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="63"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="75"/>
+    </row>
+    <row r="13" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="10">
-        <v>10</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="63">
-        <v>44330</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="N12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="2">
-        <v>40</v>
-      </c>
-      <c r="P12" s="13"/>
-      <c r="W12" s="18">
-        <v>44319</v>
-      </c>
-      <c r="X12" s="79">
-        <v>67.3</v>
-      </c>
-      <c r="Y12" s="80"/>
-    </row>
-    <row r="13" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="10">
         <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <f>SUM(G3:G7)</f>
-        <v>32</v>
-      </c>
-      <c r="H13" s="104">
+        <v>35</v>
+      </c>
+      <c r="H13" s="42">
         <f>SUM(H3:H7)</f>
+        <v>31</v>
+      </c>
+      <c r="I13" s="18">
+        <f>SUM(I3:I7)</f>
         <v>28</v>
       </c>
-      <c r="I13" s="21">
-        <f>SUM(I3:I7)</f>
-        <v>26</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="96"/>
+      <c r="K13" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="100"/>
+      <c r="N13" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="121"/>
+      <c r="P13" s="37"/>
       <c r="Q13" s="4"/>
-      <c r="W13" s="18">
-        <v>44320</v>
-      </c>
-      <c r="X13" s="79">
-        <v>67.2</v>
-      </c>
-      <c r="Y13" s="80"/>
+      <c r="T13" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="71"/>
+      <c r="V13" s="72"/>
     </row>
     <row r="14" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="10">
         <v>10</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="101">
         <f>G13+H13+I13</f>
-        <v>86</v>
-      </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="50"/>
+        <v>94</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="13"/>
       <c r="N14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P14" s="13"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="75"/>
     </row>
     <row r="15" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="10">
         <v>10</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="50"/>
+      <c r="F15" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="13"/>
       <c r="N15" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2">
         <v>75</v>
       </c>
       <c r="P15" s="13"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="80"/>
+      <c r="T15" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="U15" s="76"/>
+      <c r="V15" s="77"/>
     </row>
     <row r="16" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="10">
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <f>SUM(G8:G10)</f>
+        <v>51</v>
+      </c>
+      <c r="H16" s="42">
+        <f>SUM(H8:H10)</f>
+        <v>48</v>
+      </c>
+      <c r="I16" s="18">
+        <f>SUM(I8:I10)</f>
         <v>45</v>
       </c>
-      <c r="H16" s="104">
-        <f>SUM(H8:H10)</f>
-        <v>39</v>
-      </c>
-      <c r="I16" s="21">
-        <f>SUM(I8:I10)</f>
-        <v>36</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P16" s="13"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="80"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+    <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="101">
         <f>G16+H16+I16</f>
-        <v>120</v>
-      </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="50"/>
+        <v>144</v>
+      </c>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="13"/>
-      <c r="N17" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="111">
-        <v>40</v>
+      <c r="N17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="47">
+        <v>50</v>
       </c>
       <c r="P17" s="13"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="80"/>
-    </row>
-    <row r="18" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="58" t="s">
+      <c r="T17" s="78"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
+    </row>
+    <row r="18" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="10">
+        <v>20</v>
+      </c>
+      <c r="F18" s="106">
+        <v>44344</v>
+      </c>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="38"/>
+      <c r="N18" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="48">
+        <v>100</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="83"/>
+    </row>
+    <row r="19" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="10">
-        <v>10</v>
-      </c>
-      <c r="F18" s="63">
-        <v>44329</v>
-      </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="97"/>
-      <c r="N18" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="112">
-        <v>110</v>
-      </c>
-      <c r="P18" s="13"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="80"/>
-    </row>
-    <row r="19" spans="1:25" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="10">
         <v>10</v>
       </c>
-      <c r="H19" s="96"/>
-      <c r="N19" s="92" t="s">
+      <c r="H19" s="37"/>
+      <c r="N19" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="93"/>
+      <c r="O19" s="119"/>
       <c r="P19" s="13"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="80"/>
-    </row>
-    <row r="20" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="T19" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" s="68"/>
+      <c r="V19" s="69"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="K20" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="114"/>
-      <c r="N20" s="20" t="s">
+      <c r="K20" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="126"/>
+      <c r="N20" s="17" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="6">
         <f>SUM(O6:P12)</f>
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="P20" s="13"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="80"/>
-    </row>
-    <row r="21" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+    </row>
+    <row r="21" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="10">
         <v>10</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
-      <c r="N21" s="20" t="s">
+      <c r="F21" s="15"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
+      <c r="N21" s="17" t="s">
         <v>5</v>
       </c>
       <c r="O21" s="7">
         <f>SUM(O14:O18)</f>
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="T21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
-      <c r="N22" s="20" t="s">
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="N22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="42">
         <f>SUM(O20,O21)</f>
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="58" t="s">
+      <c r="T22" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="U22" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="10">
+        <v>10</v>
+      </c>
+      <c r="N23" s="106">
+        <v>44348</v>
+      </c>
+      <c r="O23" s="108"/>
+      <c r="P23" s="46"/>
+      <c r="T23" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="U23" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="10" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="N23" s="63">
-        <v>44333</v>
-      </c>
-      <c r="O23" s="72"/>
-      <c r="P23" s="108"/>
-    </row>
-    <row r="24" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="10">
-        <v>6</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
+      <c r="T24" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="U24" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="10">
+        <v>7</v>
+      </c>
+      <c r="N25" s="66"/>
+      <c r="P25" s="49"/>
+      <c r="T25" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="10" t="s">
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-      <c r="P25" s="117"/>
-    </row>
-    <row r="26" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="69" t="s">
+      <c r="T26" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" s="62"/>
+    </row>
+    <row r="27" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="8">
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="8">
         <v>3</v>
       </c>
-      <c r="F26" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-    </row>
-    <row r="27" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75">
-        <v>44326</v>
-      </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="F27" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
-      <c r="F28" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
+    </row>
+    <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="104">
+        <v>44342</v>
+      </c>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
     </row>
     <row r="37" spans="14:28" x14ac:dyDescent="0.3">
       <c r="AB37"/>
@@ -2731,86 +2919,73 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N9">
     <sortCondition ref="N8:N9"/>
   </sortState>
-  <mergeCells count="79">
+  <mergeCells count="66">
     <mergeCell ref="K20:L22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T10:V10"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T13:V14"/>
+    <mergeCell ref="T15:V18"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T11:V12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/운동.xlsx
+++ b/운동.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C389E-C473-4E7A-B628-09CAF0350E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D5472-48F6-45F0-B28F-1939C8B24342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E7F1F19-0C34-4A5F-B191-6F3B4DC83468}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>스쿼트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리어 풀업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1세트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의자밟고 파이크 푸쉬업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이거 푸쉬업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브이업/턱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>할로우 바디 홀드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크런치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>풀브릿지(30초 이상)(어깨,철봉X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고양이기지개(등,손 위로)20초(철봉X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철봉+이두</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,19 +244,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종목별 최대 개수 100개
-필요시 저항 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>런지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레그레이즈(+리버스크런치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마무리: 크런치 한계까지 홀딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복근(slow and hold)(2세트합)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +289,6 @@
   </si>
   <si>
     <t>어깨2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날개5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,23 +315,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목운동(손으로 막고 돌리기)20초씩
-(날개뼈 자극 및 스트레칭 X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다리찢고 흔들기(19칸) 20회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60~80분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어깨+삼두(4세트 합)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,11 +327,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하체(대퇴근 응축)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목운동(손으로 막고 돌리기)20초씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70~80분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크런치(다리들고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대 밟고 푸쉬업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하체 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>런닝(주말만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레그레이즈(리버스크런치)+고무줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50~80분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">종목별 최대 개수 100개
+철봉,어깨 연달아 하지 않기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최소 6일에 한번 어깨운동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +502,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -527,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -995,21 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1018,13 +1056,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1121,9 +1207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,28 +1255,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,11 +1276,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,31 +1324,70 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,7 +1411,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,34 +1435,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,62 +1474,56 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04218269-E922-4E4F-8EA8-989CDC46FFB2}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1748,66 +1852,63 @@
     <col min="3" max="3" width="2" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="1.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="4" customWidth="1"/>
-    <col min="13" max="14" width="8.5" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="37" customWidth="1"/>
-    <col min="17" max="17" width="9" style="37" customWidth="1"/>
-    <col min="18" max="18" width="9.125" style="37" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="8" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="12.125" customWidth="1"/>
-    <col min="25" max="25" width="11.5" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11" style="7" customWidth="1"/>
-    <col min="27" max="27" width="10.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="9.75" style="4" customWidth="1"/>
-    <col min="30" max="30" width="12.375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.75" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="3.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="36" customWidth="1"/>
+    <col min="14" max="14" width="9" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="1.5" style="36" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="37.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.75" style="8" customWidth="1"/>
+    <col min="20" max="20" width="2.625" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="4.25" customWidth="1"/>
+    <col min="23" max="23" width="6" style="4" customWidth="1"/>
+    <col min="24" max="24" width="4.25" style="7" customWidth="1"/>
+    <col min="25" max="25" width="10.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="9.75" style="4" customWidth="1"/>
+    <col min="28" max="28" width="12.375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.75" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="D1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="66"/>
-      <c r="I1" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="68"/>
-      <c r="L1" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="D1" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="64"/>
+      <c r="I1" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="66"/>
+      <c r="L1" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="64"/>
+      <c r="T1" s="57"/>
+    </row>
+    <row r="2" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1816,41 +1917,39 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="33">
+      <c r="I2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="32">
         <v>100</v>
       </c>
-      <c r="L2" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="54">
-        <v>44351</v>
-      </c>
-      <c r="P2" s="54">
-        <v>44351</v>
-      </c>
-      <c r="Q2" s="73">
-        <v>44354</v>
-      </c>
-      <c r="R2" s="62"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63" t="s">
+      <c r="L2" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="79"/>
+      <c r="T2" s="57"/>
+    </row>
+    <row r="3" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="62"/>
       <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
@@ -1863,23 +1962,29 @@
       <c r="G3" s="22">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="34">
+      <c r="I3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="33">
         <v>100</v>
       </c>
-      <c r="L3" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="70"/>
+      <c r="T3" s="57"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1899,39 +2004,44 @@
         <v>5</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="34">
+        <v>41</v>
+      </c>
+      <c r="J4" s="33">
         <v>100</v>
       </c>
-      <c r="L4" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="4"/>
-      <c r="T4" s="8"/>
-      <c r="U4"/>
-      <c r="V4" s="40"/>
-      <c r="W4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="1"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="L4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="68"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="133"/>
+      <c r="W4" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="62"/>
       <c r="D5" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="18">
         <v>3</v>
@@ -1943,810 +2053,796 @@
         <v>3</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="34">
-        <v>30</v>
-      </c>
-      <c r="L5" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="4"/>
-      <c r="T5" s="8"/>
-      <c r="U5"/>
-      <c r="V5" s="40"/>
-      <c r="W5"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="1"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="J5" s="33">
+        <v>36</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="81"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="135"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="18">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18">
-        <v>3</v>
-      </c>
-      <c r="G6" s="15">
-        <v>3</v>
+      <c r="E6" s="26">
+        <v>12</v>
+      </c>
+      <c r="F6" s="26">
+        <v>11</v>
+      </c>
+      <c r="G6" s="27">
+        <v>11</v>
       </c>
       <c r="I6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="33">
+        <v>100</v>
+      </c>
+      <c r="L6" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="32">
         <v>45</v>
       </c>
-      <c r="J6" s="34">
-        <v>100</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="33">
-        <v>41</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="8"/>
+      <c r="T6" s="58"/>
       <c r="U6"/>
-      <c r="V6" s="40"/>
-      <c r="W6"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="1"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V6" s="4"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>60</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="26">
-        <v>12</v>
-      </c>
-      <c r="F7" s="26">
-        <v>11</v>
-      </c>
-      <c r="G7" s="27">
-        <v>11</v>
+      <c r="D7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="29">
+        <v>19</v>
+      </c>
+      <c r="F7" s="29">
+        <v>18</v>
+      </c>
+      <c r="G7" s="31">
+        <v>16</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="34">
+        <v>44</v>
+      </c>
+      <c r="J7" s="33">
         <v>100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="34">
-        <v>25</v>
-      </c>
-      <c r="O7" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="4"/>
-      <c r="T7" s="8"/>
+      <c r="L7" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="128">
+        <v>44378</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="33">
+        <v>27</v>
+      </c>
+      <c r="T7" s="58"/>
       <c r="U7"/>
-      <c r="V7" s="40"/>
-      <c r="W7"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="1"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V7" s="4"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <f>SUM(B2,B4,B6,B7)</f>
         <v>360</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="18">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18">
         <v>18</v>
       </c>
-      <c r="F8" s="29">
+      <c r="G8" s="15">
+        <v>16</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="33">
+        <v>100</v>
+      </c>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="37">
+        <v>25</v>
+      </c>
+      <c r="T8" s="58"/>
+      <c r="U8"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="1"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="124">
+        <v>44378</v>
+      </c>
+      <c r="B9" s="126"/>
+      <c r="D9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26">
+        <v>19</v>
+      </c>
+      <c r="F9" s="26">
+        <v>18</v>
+      </c>
+      <c r="G9" s="27">
+        <v>16</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="128">
+        <v>44376</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="31">
-        <v>16</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="T9" s="58"/>
+      <c r="U9"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="1"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="D10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="34">
+      <c r="F10" s="62"/>
+      <c r="G10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="34">
+        <f>SUM(J2:J8)</f>
+        <v>636</v>
+      </c>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="37">
+        <v>65</v>
+      </c>
+      <c r="T10" s="58"/>
+      <c r="U10"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="D11" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="I11" s="124">
+        <v>44375</v>
+      </c>
+      <c r="J11" s="126"/>
+      <c r="L11" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="37">
+        <v>36</v>
+      </c>
+      <c r="T11" s="58"/>
+      <c r="U11"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12">
+        <f>SUM(E3:E6)</f>
+        <v>33</v>
+      </c>
+      <c r="F12" s="35">
+        <f>SUM(F3:F6)</f>
+        <v>29</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(G3:G6)</f>
+        <v>26</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="111"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="2">
+        <v>55</v>
+      </c>
+      <c r="T12" s="58"/>
+      <c r="U12"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="121">
+        <f>E12+F12+G12</f>
+        <v>88</v>
+      </c>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="L13" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="92"/>
+      <c r="T13" s="58"/>
+      <c r="U13"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="2">
+        <v>57</v>
+      </c>
+      <c r="T14" s="58"/>
+      <c r="U14"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12">
+        <f>SUM(E7:E9)</f>
+        <v>57</v>
+      </c>
+      <c r="F15" s="35">
+        <f>SUM(F7:F9)</f>
+        <v>54</v>
+      </c>
+      <c r="G15" s="13">
+        <f>SUM(G7:G9)</f>
+        <v>48</v>
+      </c>
+      <c r="L15" s="104"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" s="58"/>
+      <c r="U15"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="121">
+        <f>E15+F15+G15</f>
+        <v>159</v>
+      </c>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="2">
+        <v>67</v>
+      </c>
+      <c r="T16" s="58"/>
+      <c r="U16"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="124">
+        <v>44376</v>
+      </c>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="L17" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="37">
+        <v>60</v>
+      </c>
+      <c r="T17" s="58"/>
+      <c r="U17"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="1"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="36"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="38">
         <v>100</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="38">
-        <v>20</v>
-      </c>
-      <c r="O8" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="4"/>
-      <c r="T8" s="8"/>
-      <c r="U8"/>
-      <c r="V8" s="40"/>
-      <c r="W8"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="1"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61">
-        <v>44349</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="D9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="18">
-        <v>18</v>
-      </c>
-      <c r="F9" s="18">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15">
-        <v>16</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="34">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2">
-        <v>17</v>
-      </c>
-      <c r="O9" s="116" t="s">
+      <c r="T18" s="58"/>
+      <c r="U18"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="116"/>
+      <c r="L19" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="90"/>
+      <c r="T19" s="58"/>
+      <c r="U19"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="10"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="L20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="53"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="5">
+        <f>SUM(S6:S12)</f>
+        <v>270</v>
+      </c>
+      <c r="T20" s="58"/>
+      <c r="U20"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="1"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+      <c r="L21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="6">
+        <f>SUM(S14:S18)</f>
+        <v>360</v>
+      </c>
+      <c r="T21" s="58"/>
+      <c r="U21"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="1"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="35">
+        <f>SUM(S20,S21)</f>
+        <v>630</v>
+      </c>
+      <c r="T22" s="58"/>
+      <c r="U22"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="1"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="10"/>
+      <c r="L23" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="88">
+        <v>44379</v>
+      </c>
+      <c r="S23" s="88"/>
+      <c r="T23" s="58"/>
+      <c r="U23"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="1"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="36"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="1"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="8"/>
-      <c r="U9"/>
-      <c r="V9" s="40"/>
-      <c r="W9"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="1"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="106"/>
-      <c r="D10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26">
-        <v>18</v>
-      </c>
-      <c r="F10" s="26">
-        <v>17</v>
-      </c>
-      <c r="G10" s="27">
-        <v>16</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="38">
-        <v>60</v>
-      </c>
-      <c r="O10" s="116" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="8"/>
-      <c r="U10"/>
-      <c r="V10" s="40"/>
-      <c r="W10"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="1"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="D11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="35">
-        <f>SUM(J2:J9)</f>
-        <v>730</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="38">
-        <v>35</v>
-      </c>
-      <c r="O11" s="85" t="s">
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="131">
-        <v>44358</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11"/>
-      <c r="V11" s="40"/>
-      <c r="W11"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="1"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="102" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="I12" s="61">
-        <v>44357</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="L12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="2">
-        <v>47</v>
-      </c>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="130"/>
-      <c r="T12" s="8"/>
-      <c r="U12"/>
-      <c r="V12" s="40"/>
-      <c r="W12"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="1"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12">
-        <f>SUM(E3:E7)</f>
-        <v>36</v>
-      </c>
-      <c r="F13" s="36">
-        <f>SUM(F3:F7)</f>
-        <v>32</v>
-      </c>
-      <c r="G13" s="13">
-        <f>SUM(G3:G7)</f>
-        <v>29</v>
-      </c>
-      <c r="I13" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="106"/>
-      <c r="L13" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="128" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="129"/>
-      <c r="T13" s="8"/>
-      <c r="U13"/>
-      <c r="V13" s="40"/>
-      <c r="W13"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="1"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="102">
-        <f>E13+F13+G13</f>
-        <v>97</v>
-      </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="L14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="2">
-        <v>56</v>
-      </c>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="130"/>
-      <c r="T14" s="8"/>
-      <c r="U14"/>
-      <c r="V14" s="40"/>
-      <c r="W14"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="1"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="L15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="2">
-        <v>75</v>
-      </c>
-      <c r="O15" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="4"/>
-      <c r="T15" s="8"/>
-      <c r="U15"/>
-      <c r="V15" s="40"/>
-      <c r="W15"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="1"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="12">
-        <f>SUM(E8:E10)</f>
-        <v>54</v>
-      </c>
-      <c r="F16" s="36">
-        <f>SUM(F8:F10)</f>
-        <v>51</v>
-      </c>
-      <c r="G16" s="13">
-        <f>SUM(G8:G10)</f>
-        <v>48</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2">
-        <v>66</v>
-      </c>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="4"/>
-      <c r="T16" s="8"/>
-      <c r="U16"/>
-      <c r="V16" s="40"/>
-      <c r="W16"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="4:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="102">
-        <f>E16+F16+G16</f>
-        <v>153</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="L17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="38">
-        <v>53</v>
-      </c>
-      <c r="O17" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="4"/>
-      <c r="T17" s="8"/>
-      <c r="U17"/>
-      <c r="V17" s="40"/>
-      <c r="W17"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="1"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="4:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="61">
-        <v>44356</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="62"/>
-      <c r="L18" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="39">
-        <v>100</v>
-      </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="4"/>
-      <c r="T18" s="8"/>
-      <c r="U18"/>
-      <c r="V18" s="40"/>
-      <c r="W18"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="1"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="4:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K19" s="32"/>
-      <c r="L19" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="80"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="4"/>
-      <c r="T19" s="8"/>
-      <c r="U19"/>
-      <c r="V19" s="40"/>
-      <c r="W19"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="1"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="4:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I20" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="108"/>
-      <c r="L20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="5">
-        <f>SUM(M6:M12)</f>
-        <v>245</v>
-      </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="4"/>
-      <c r="T20" s="8"/>
-      <c r="U20"/>
-      <c r="V20" s="40"/>
-      <c r="W20"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="1"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="4:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="109"/>
-      <c r="J21" s="110"/>
-      <c r="L21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="6">
-        <f>SUM(M14:M18)</f>
-        <v>350</v>
-      </c>
-      <c r="O21" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="4"/>
-      <c r="T21" s="8"/>
-      <c r="U21"/>
-      <c r="V21" s="40"/>
-      <c r="W21"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="1"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="4:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
-      <c r="L22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="36">
-        <f>SUM(M20,M21)</f>
-        <v>595</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="1"/>
-      <c r="T22" s="8"/>
-      <c r="U22"/>
-      <c r="V22" s="40"/>
-      <c r="W22"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="1"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="4:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L23" s="61">
-        <v>44358</v>
-      </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="1"/>
-      <c r="T23" s="8"/>
-      <c r="U23"/>
-      <c r="V23" s="40"/>
-      <c r="W23"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="1"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="4:29" x14ac:dyDescent="0.3">
-      <c r="I24" s="10"/>
-      <c r="O24" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="1"/>
-      <c r="T24" s="8"/>
-      <c r="U24"/>
-      <c r="V24" s="40"/>
-      <c r="W24"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="1"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="4:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O25" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="T25" s="8"/>
+      <c r="P25" s="53"/>
+      <c r="R25" s="8"/>
+      <c r="S25"/>
+      <c r="T25" s="39"/>
       <c r="U25"/>
-      <c r="V25" s="40"/>
-      <c r="W25"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="1"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="4:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O26" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="T26" s="8"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="1"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="53"/>
+      <c r="R26" s="60"/>
+      <c r="S26"/>
+      <c r="T26" s="39"/>
       <c r="U26"/>
-      <c r="V26" s="40"/>
-      <c r="W26"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="1"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="4:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O27" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="T27" s="8"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="1"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="8"/>
+      <c r="R27" s="60"/>
+      <c r="S27"/>
+      <c r="T27" s="39"/>
       <c r="U27"/>
-      <c r="V27" s="40"/>
-      <c r="W27"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="1"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="4:29" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O28" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="T28" s="8"/>
-      <c r="U28"/>
-      <c r="V28" s="40"/>
-      <c r="W28"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="1"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28"/>
+      <c r="R28" s="39"/>
+      <c r="S28"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="1"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="37" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="AD37"/>
-    </row>
-    <row r="38" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="AD38"/>
-    </row>
-    <row r="39" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="AD39"/>
-    </row>
-    <row r="40" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="AD40"/>
-    </row>
-    <row r="43" spans="16:30" x14ac:dyDescent="0.3">
-      <c r="P43"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="37" spans="13:28" x14ac:dyDescent="0.3">
+      <c r="AB37"/>
+    </row>
+    <row r="38" spans="13:28" x14ac:dyDescent="0.3">
+      <c r="AB38"/>
+    </row>
+    <row r="39" spans="13:28" x14ac:dyDescent="0.3">
+      <c r="M39"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="AB39"/>
+    </row>
+    <row r="40" spans="13:28" x14ac:dyDescent="0.3">
+      <c r="AB40"/>
+    </row>
+    <row r="42" spans="13:28" x14ac:dyDescent="0.3">
+      <c r="P42" s="54"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L9">
-    <sortCondition ref="L8:L9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R9">
+    <sortCondition ref="R8:R9"/>
   </sortState>
-  <mergeCells count="41">
-    <mergeCell ref="O13:Q14"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O6:Q6"/>
+  <mergeCells count="39">
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I20:J22"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O15:Q16"/>
-    <mergeCell ref="O17:Q20"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L13:N16"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/운동.xlsx
+++ b/운동.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D5472-48F6-45F0-B28F-1939C8B24342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CF10A-2BA5-4C2F-9483-76C6E1F7710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E7F1F19-0C34-4A5F-B191-6F3B4DC83468}"/>
   </bookViews>
@@ -1294,85 +1294,112 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,24 +1426,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1441,89 +1450,80 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1880,32 +1880,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="114"/>
+      <c r="D1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="114"/>
+      <c r="I1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="L1" s="75" t="s">
+      <c r="J1" s="116"/>
+      <c r="L1" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="127"/>
       <c r="O1" s="4"/>
       <c r="P1" s="50"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="64"/>
+      <c r="S1" s="114"/>
       <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1931,25 +1931,25 @@
       <c r="J2" s="32">
         <v>100</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="4"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="56"/>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="79"/>
+      <c r="S2" s="129"/>
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="96"/>
       <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
@@ -1968,18 +1968,18 @@
       <c r="J3" s="33">
         <v>100</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="4"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="70"/>
+      <c r="S3" s="120"/>
       <c r="T3" s="57"/>
       <c r="V3" s="4"/>
       <c r="W3" s="1"/>
@@ -2009,24 +2009,24 @@
       <c r="J4" s="33">
         <v>100</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="L4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
       <c r="O4" s="4"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="56"/>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="68"/>
+      <c r="S4" s="118"/>
       <c r="T4" s="58"/>
-      <c r="U4" s="132" t="s">
+      <c r="U4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="131" t="s">
+      <c r="V4" s="67"/>
+      <c r="W4" s="61" t="s">
         <v>85</v>
       </c>
       <c r="X4" s="18" t="s">
@@ -2036,10 +2036,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="96"/>
       <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
@@ -2058,29 +2058,29 @@
       <c r="J5" s="33">
         <v>36</v>
       </c>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="137"/>
       <c r="O5" s="4"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="56"/>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="81"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="58"/>
-      <c r="U5" s="134" t="s">
+      <c r="U5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="137" t="s">
+      <c r="V5" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="W5" s="136" t="s">
+      <c r="W5" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="X5" s="135"/>
+      <c r="X5" s="63"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="1"/>
     </row>
@@ -2109,11 +2109,11 @@
       <c r="J6" s="33">
         <v>100</v>
       </c>
-      <c r="L6" s="112" t="s">
+      <c r="L6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="114"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="4"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="56"/>
@@ -2156,12 +2156,12 @@
       <c r="J7" s="33">
         <v>100</v>
       </c>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="128">
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="76">
         <v>44378</v>
       </c>
       <c r="P7" s="8"/>
@@ -2206,10 +2206,10 @@
       <c r="J8" s="33">
         <v>100</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="129"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="2" t="s">
@@ -2227,10 +2227,10 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124">
+      <c r="A9" s="68">
         <v>44378</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="69"/>
       <c r="D9" s="25" t="s">
         <v>36</v>
       </c>
@@ -2249,13 +2249,13 @@
       <c r="J9" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="128">
-        <v>44376</v>
+      <c r="M9" s="71"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="76">
+        <v>44379</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="56"/>
@@ -2274,17 +2274,17 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="111"/>
+      <c r="B10" s="79"/>
       <c r="D10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
@@ -2295,10 +2295,10 @@
         <f>SUM(J2:J8)</f>
         <v>636</v>
       </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="129"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="55"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="23" t="s">
@@ -2316,25 +2316,25 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="D11" s="121" t="s">
+      <c r="B11" s="79"/>
+      <c r="D11" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
-      <c r="I11" s="124">
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="I11" s="68">
         <v>44375</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="L11" s="96" t="s">
+      <c r="J11" s="69"/>
+      <c r="L11" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="4"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="56"/>
@@ -2368,13 +2368,13 @@
         <f>SUM(G3:G6)</f>
         <v>26</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="111"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="101"/>
+      <c r="J12" s="79"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="4"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="56"/>
@@ -2396,24 +2396,24 @@
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="91">
         <f>E12+F12+G12</f>
         <v>88</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
-      <c r="L13" s="96" t="s">
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="L13" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="4"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="56"/>
-      <c r="R13" s="91" t="s">
+      <c r="R13" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="92"/>
+      <c r="S13" s="101"/>
       <c r="T13" s="58"/>
       <c r="U13"/>
       <c r="V13" s="4"/>
@@ -2423,15 +2423,15 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="123"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="106"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
       <c r="O14" s="4"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="56"/>
@@ -2465,9 +2465,9 @@
         <f>SUM(G7:G9)</f>
         <v>48</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="106"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="109"/>
       <c r="O15" s="4"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="56"/>
@@ -2490,15 +2490,15 @@
       <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="91">
         <f>E15+F15+G15</f>
         <v>159</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="109"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="112"/>
       <c r="O16" s="4"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="56"/>
@@ -2516,17 +2516,17 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="124">
+      <c r="D17" s="68">
         <v>44376</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="126"/>
-      <c r="L17" s="93" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="69"/>
+      <c r="L17" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="94"/>
-      <c r="N17" s="95"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="104"/>
       <c r="O17" s="4"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="56"/>
@@ -2566,10 +2566,10 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="116"/>
+      <c r="J19" s="86"/>
       <c r="L19" s="44" t="s">
         <v>64</v>
       </c>
@@ -2580,10 +2580,10 @@
       <c r="O19" s="1"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="56"/>
-      <c r="R19" s="89" t="s">
+      <c r="R19" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="90"/>
+      <c r="S19" s="99"/>
       <c r="T19" s="58"/>
       <c r="U19"/>
       <c r="V19" s="4"/>
@@ -2594,8 +2594,8 @@
     </row>
     <row r="20" spans="1:27" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="10"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
       <c r="L20" s="47" t="s">
         <v>62</v>
       </c>
@@ -2622,8 +2622,8 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
       <c r="L21" s="47" t="s">
         <v>63</v>
       </c>
@@ -2684,10 +2684,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="56"/>
-      <c r="R23" s="88">
+      <c r="R23" s="97">
         <v>44379</v>
       </c>
-      <c r="S23" s="88"/>
+      <c r="S23" s="97"/>
       <c r="T23" s="58"/>
       <c r="U23"/>
       <c r="V23" s="4"/>
@@ -2804,31 +2804,6 @@
     <sortCondition ref="R8:R9"/>
   </sortState>
   <mergeCells count="39">
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L7:N8"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="L13:N16"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
@@ -2839,9 +2814,34 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="L13:N16"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R5:S5"/>
     <mergeCell ref="L5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
